--- a/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
+++ b/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
@@ -5,27 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svein\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svein\Desktop\Háskólinn í Reykjavík\1. Önn\Verklegt Námskeið 1\Þarfagreiningaskýrsla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0533A-9BA6-4F48-8C04-5DD1C2AEDE94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FB1076-7139-44C2-9B57-54C45E300272}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7368" xr2:uid="{7389FB77-ACA9-4EB8-AEB5-485DF364FFC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{7389FB77-ACA9-4EB8-AEB5-485DF364FFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Number</t>
   </si>
@@ -42,12 +48,6 @@
     <t>Additional information</t>
   </si>
   <si>
-    <t>Notandi þarf að geta leigt út bíl.</t>
-  </si>
-  <si>
-    <t>Starfsmenn</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -57,92 +57,92 @@
     <t>C</t>
   </si>
   <si>
-    <t>Notandi þarf að geta skráð niður skil á bíl.</t>
-  </si>
-  <si>
-    <t>Notandi þarf að geta skoðað lausa bíla</t>
-  </si>
-  <si>
-    <t>Notandi þarf að geta skráð viðskiptavin</t>
-  </si>
-  <si>
-    <t>Notandi þarf að geta reiknað kostnað á leigu</t>
-  </si>
-  <si>
-    <t>Villumeðhöndlun á innslætti.</t>
-  </si>
-  <si>
-    <t>Að geta leigt út bíl á ákveðinni tímasetningu.</t>
-  </si>
-  <si>
-    <t>Með öllum upplýsingum.</t>
-  </si>
-  <si>
-    <t>T.d. innslætti á kennitölu, dagsetningu og öðrum lykilgildum.</t>
-  </si>
-  <si>
-    <t>T.d. skoðað hvað bílar eru pantaðir og hvaða bílar hafa verið mikið notaðir.</t>
-  </si>
-  <si>
-    <t>Sjá upplýsingar um viðskiptavin eins og pöntunarsögu</t>
-  </si>
-  <si>
-    <t>Að geta breytt/uppfæra upplýsingar.</t>
-  </si>
-  <si>
-    <t>Að geta séð hvað mismunandi bílar kosta.</t>
-  </si>
-  <si>
-    <t>Notandi getur afskráð viðskiptavin.</t>
-  </si>
-  <si>
-    <t>Notandi getur skoðað pantanir.</t>
-  </si>
-  <si>
-    <t>Notandi getur birt alla bíla sem eru í útleigu.</t>
-  </si>
-  <si>
-    <t>Notandi getur flett upp viðskiptavini þegar þörf er á.</t>
-  </si>
-  <si>
-    <t>Notandi getur bakfært pöntun ef þörf er á.</t>
-  </si>
-  <si>
-    <t>Notandi getur uppfært skráningu á viðskiptavini.</t>
-  </si>
-  <si>
-    <t>Notandi getur uppfært fyrri pöntun.</t>
-  </si>
-  <si>
-    <t>Notandi getur birt verðlista.</t>
-  </si>
-  <si>
-    <t>Notandi getur veitt viðskiptavini frekari tryggingu.</t>
-  </si>
-  <si>
-    <t>Notandi getur birt skjáyfirlit um hvaða bílar eru lausir og á hvaða tíma.</t>
-  </si>
-  <si>
-    <t>Notandi getur birt leigusamning.</t>
-  </si>
-  <si>
-    <t>Að geta breytt ef eitthvað kemur upp á hjá viðskiptavini.</t>
-  </si>
-  <si>
-    <t>Leigusamningur/Pöntunarstaðfesting/Reikningur</t>
-  </si>
-  <si>
-    <t>Notandi tekur á móti bíl sem bilar á miðju leigutímabili.</t>
-  </si>
-  <si>
-    <t>Athuga með tryggingar og notandi fær annan bíl ef hann vill.</t>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>User can rent out a car.</t>
+  </si>
+  <si>
+    <t>User can take cars back from rental.</t>
+  </si>
+  <si>
+    <t>User can view available cars.</t>
+  </si>
+  <si>
+    <t>User can add customer to customer database.</t>
+  </si>
+  <si>
+    <t>User can calculate the total cost of the rental.</t>
+  </si>
+  <si>
+    <t>User can print out a price list.</t>
+  </si>
+  <si>
+    <t>User can unregister a customer.</t>
+  </si>
+  <si>
+    <t>User can view order history.</t>
+  </si>
+  <si>
+    <t>User can view all available cars.</t>
+  </si>
+  <si>
+    <t>User can search for a customer in the customer database.</t>
+  </si>
+  <si>
+    <t>User can reverse an order.</t>
+  </si>
+  <si>
+    <t>User can update a customers information in the customer database.</t>
+  </si>
+  <si>
+    <t>User can update a previous order.</t>
+  </si>
+  <si>
+    <t>User can give the customer extra insurance.</t>
+  </si>
+  <si>
+    <t>User can display wich cars are available and at what time.</t>
+  </si>
+  <si>
+    <t>User can display a rental contract.</t>
+  </si>
+  <si>
+    <t>User can take a car back from a rental in the middle of the rental period.</t>
+  </si>
+  <si>
+    <t>To be able to rent a car on a specific date.</t>
+  </si>
+  <si>
+    <t>With all information.</t>
+  </si>
+  <si>
+    <t>Be able to see the price on different type of cars</t>
+  </si>
+  <si>
+    <t>F.x. see what cars have been ordered a lot and see what cars are on rental now.</t>
+  </si>
+  <si>
+    <t>See information about customer like rental history</t>
+  </si>
+  <si>
+    <t>To be able to change/update information</t>
+  </si>
+  <si>
+    <t>If anything happens, either with the customer or the car.</t>
+  </si>
+  <si>
+    <t>Rental contrack/Order confirmation/Bill</t>
+  </si>
+  <si>
+    <t>Check the incurance and the customer gets another car if he wants.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +159,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,16 +208,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,9 +243,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -252,6 +250,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047BF611-7DCC-4B60-BEAC-3092C9148A7E}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,320 +597,313 @@
     <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <f t="shared" ref="A11:A18" si="0">A10+1</f>
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="8"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
+++ b/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svein\Desktop\Háskólinn í Reykjavík\1. Önn\Verklegt Námskeið 1\Þarfagreiningaskýrsla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teklakristjans/Documents/HR/Fyrsta ár/Verklegt_1/Verklegt-n-mskei-1/Þarfagreiningaskýrsla/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FB1076-7139-44C2-9B57-54C45E300272}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2330C-8990-A342-8BDA-AE569E772097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{7389FB77-ACA9-4EB8-AEB5-485DF364FFC2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{7389FB77-ACA9-4EB8-AEB5-485DF364FFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -102,9 +96,6 @@
     <t>User can give the customer extra insurance.</t>
   </si>
   <si>
-    <t>User can display wich cars are available and at what time.</t>
-  </si>
-  <si>
     <t>User can display a rental contract.</t>
   </si>
   <si>
@@ -117,32 +108,35 @@
     <t>With all information.</t>
   </si>
   <si>
-    <t>Be able to see the price on different type of cars</t>
-  </si>
-  <si>
     <t>F.x. see what cars have been ordered a lot and see what cars are on rental now.</t>
   </si>
   <si>
-    <t>See information about customer like rental history</t>
-  </si>
-  <si>
-    <t>To be able to change/update information</t>
-  </si>
-  <si>
     <t>If anything happens, either with the customer or the car.</t>
   </si>
   <si>
-    <t>Rental contrack/Order confirmation/Bill</t>
-  </si>
-  <si>
     <t>Check the incurance and the customer gets another car if he wants.</t>
+  </si>
+  <si>
+    <t>Be able to see the price on different type of cars.</t>
+  </si>
+  <si>
+    <t>See information about customer like rental history.</t>
+  </si>
+  <si>
+    <t>To be able to change/update information.</t>
+  </si>
+  <si>
+    <t>Rental contrack/Order confirmation/Bill.</t>
+  </si>
+  <si>
+    <t>User can display which cars are available and at what time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +145,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -180,12 +191,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF69FF69"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,57 +219,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,8 +258,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9B9B"/>
       <color rgb="FF69FF69"/>
-      <color rgb="FFFF9B9B"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF79FF79"/>
       <color rgb="FF00FF37"/>
@@ -586,324 +577,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047BF611-7DCC-4B60-BEAC-3092C9148A7E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="2" spans="2:7" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <f>A9+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <f t="shared" ref="A11:A18" si="0">A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="19" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
+++ b/Þarfagreiningaskýrsla/blodrunkkröfulisti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teklakristjans/Documents/HR/Fyrsta ár/Verklegt_1/Verklegt-n-mskei-1/Þarfagreiningaskýrsla/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38A64AF-B412-A644-A5BE-4E9B873518C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACFF63-865B-2B44-9715-40624E59FAA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{7389FB77-ACA9-4EB8-AEB5-485DF364FFC2}"/>
   </bookViews>
